--- a/FA_IMPORT_.xlsx
+++ b/FA_IMPORT_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2FEC65-1C31-401F-8206-B0CA9CC87B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45F4462-3088-4A8E-A698-9E1DE615D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1FF53E2-F053-46FC-8B3D-ECD89C4A792F}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FA_IMPORT!$A$1:$E$646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FA_IMPORT!$A$1:$E$645</definedName>
     <definedName name="Cable_Size">'[1]Drop Down List'!$C$4:$C$9</definedName>
     <definedName name="FST_Size">'[1]Drop Down List'!$C$10:$C$14</definedName>
     <definedName name="Idle_count">'[1]Drop Down List'!$M$1:$M$19</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="349">
   <si>
     <t>PRIMARY_TERM_ADDRESS</t>
   </si>
@@ -1182,7 +1182,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1903,10 +1914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E336C4-7F18-4C2F-A175-15E28B340037}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:E646"/>
+  <dimension ref="A1:E645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,10 +2017,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2017,23 +2028,23 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2041,7 +2052,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,39 +2060,39 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,15 +2100,15 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,15 +2116,15 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,15 +2140,15 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2145,7 +2156,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2153,15 +2164,15 @@
         <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2169,7 +2180,7 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2177,15 +2188,15 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2193,7 +2204,7 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2201,7 +2212,7 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2209,15 +2220,15 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2236,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,15 +2244,15 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2260,7 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,15 +2268,15 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,15 +2284,15 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,23 +2300,23 @@
         <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,15 +2324,15 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2340,7 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2348,7 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,15 +2356,15 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,15 +2372,15 @@
         <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,15 +2396,15 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2412,7 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,15 +2420,15 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,15 +2436,15 @@
         <v>31</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2452,7 @@
         <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,39 +2460,39 @@
         <v>32</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,31 +2500,31 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,7 +2532,7 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2529,15 +2540,15 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -2545,7 +2556,7 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2553,23 +2564,23 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2577,39 +2588,39 @@
         <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,47 +2628,47 @@
         <v>46</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,63 +2676,63 @@
         <v>51</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2729,7 +2740,7 @@
         <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,15 +2748,15 @@
         <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2753,23 +2764,23 @@
         <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,15 +2788,15 @@
         <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,23 +2804,23 @@
         <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,23 +2828,23 @@
         <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2852,7 @@
         <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,15 +2860,15 @@
         <v>66</v>
       </c>
       <c r="B116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2876,7 @@
         <v>67</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,15 +2884,15 @@
         <v>67</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,15 +2900,15 @@
         <v>68</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,23 +2916,23 @@
         <v>69</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,15 +2940,15 @@
         <v>71</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,23 +2956,23 @@
         <v>72</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,15 +2980,15 @@
         <v>74</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B132" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,39 +2996,39 @@
         <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -3025,7 +3036,7 @@
         <v>79</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -3033,63 +3044,63 @@
         <v>79</v>
       </c>
       <c r="B139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B142" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B144" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B146" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,39 +3108,39 @@
         <v>86</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3137,31 +3148,31 @@
         <v>90</v>
       </c>
       <c r="B152" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B153" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B154" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -3169,7 +3180,7 @@
         <v>93</v>
       </c>
       <c r="B156" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,55 +3188,55 @@
         <v>93</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B158" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B161" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B162" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3233,23 +3244,23 @@
         <v>99</v>
       </c>
       <c r="B164" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B165" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B166" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,55 +3268,55 @@
         <v>101</v>
       </c>
       <c r="B167" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B170" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3324,7 @@
         <v>107</v>
       </c>
       <c r="B174" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,15 +3332,15 @@
         <v>107</v>
       </c>
       <c r="B175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B176" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,15 +3348,15 @@
         <v>108</v>
       </c>
       <c r="B177" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B178" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,15 +3364,15 @@
         <v>109</v>
       </c>
       <c r="B179" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B180" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3369,15 +3380,15 @@
         <v>110</v>
       </c>
       <c r="B181" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B182" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,15 +3396,15 @@
         <v>111</v>
       </c>
       <c r="B183" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B184" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3401,23 +3412,23 @@
         <v>112</v>
       </c>
       <c r="B185" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B186" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3436,7 @@
         <v>114</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3433,15 +3444,15 @@
         <v>114</v>
       </c>
       <c r="B189" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B190" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,7 +3460,7 @@
         <v>115</v>
       </c>
       <c r="B191" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,7 +3468,7 @@
         <v>115</v>
       </c>
       <c r="B192" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -3465,15 +3476,15 @@
         <v>115</v>
       </c>
       <c r="B193" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B194" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,15 +3492,15 @@
         <v>116</v>
       </c>
       <c r="B195" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B196" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +3508,7 @@
         <v>117</v>
       </c>
       <c r="B197" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,15 +3516,15 @@
         <v>117</v>
       </c>
       <c r="B198" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B199" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3521,15 +3532,15 @@
         <v>118</v>
       </c>
       <c r="B200" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,15 +3548,15 @@
         <v>119</v>
       </c>
       <c r="B202" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B203" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,15 +3564,15 @@
         <v>120</v>
       </c>
       <c r="B204" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B205" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,15 +3580,15 @@
         <v>121</v>
       </c>
       <c r="B206" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B207" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,15 +3596,15 @@
         <v>122</v>
       </c>
       <c r="B208" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B209" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3612,7 @@
         <v>123</v>
       </c>
       <c r="B210" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,15 +3620,15 @@
         <v>123</v>
       </c>
       <c r="B211" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B212" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,23 +3636,23 @@
         <v>124</v>
       </c>
       <c r="B213" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B214" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B215" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,15 +3660,15 @@
         <v>126</v>
       </c>
       <c r="B216" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B217" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +3676,7 @@
         <v>127</v>
       </c>
       <c r="B218" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,31 +3684,28 @@
         <v>127</v>
       </c>
       <c r="B219" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B220" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B221" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B222" t="s">
-        <v>348</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -5815,13 +5823,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E646" xr:uid="{32E336C4-7F18-4C2F-A175-15E28B340037}"/>
+  <autoFilter ref="A1:E645" xr:uid="{32E336C4-7F18-4C2F-A175-15E28B340037}"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{87731D23-45CD-44E3-A70A-996B4FE2A758}">
       <formula1>"P,S"</formula1>

--- a/FA_IMPORT_.xlsx
+++ b/FA_IMPORT_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45F4462-3088-4A8E-A698-9E1DE615D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C59A3F7-841F-4D52-9BC5-FCC1A2A3F3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1FF53E2-F053-46FC-8B3D-ECD89C4A792F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1FF53E2-F053-46FC-8B3D-ECD89C4A792F}"/>
   </bookViews>
   <sheets>
     <sheet name="FA_IMPORT" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FA_IMPORT!$A$1:$E$645</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FA_IMPORT!$A$1:$E$643</definedName>
     <definedName name="Cable_Size">'[1]Drop Down List'!$C$4:$C$9</definedName>
     <definedName name="FST_Size">'[1]Drop Down List'!$C$10:$C$14</definedName>
     <definedName name="Idle_count">'[1]Drop Down List'!$M$1:$M$19</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="349">
   <si>
     <t>PRIMARY_TERM_ADDRESS</t>
   </si>
@@ -1914,10 +1914,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E336C4-7F18-4C2F-A175-15E28B340037}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:E645"/>
+  <dimension ref="A1:E643"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,15 +3468,15 @@
         <v>115</v>
       </c>
       <c r="B192" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B193" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -3484,15 +3484,15 @@
         <v>116</v>
       </c>
       <c r="B194" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B195" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3500,7 +3500,7 @@
         <v>117</v>
       </c>
       <c r="B196" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3508,15 +3508,15 @@
         <v>117</v>
       </c>
       <c r="B197" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B198" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3524,15 +3524,15 @@
         <v>118</v>
       </c>
       <c r="B199" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B200" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,15 +3540,15 @@
         <v>119</v>
       </c>
       <c r="B201" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B202" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3556,15 +3556,15 @@
         <v>120</v>
       </c>
       <c r="B203" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B204" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3572,31 +3572,31 @@
         <v>121</v>
       </c>
       <c r="B205" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B206" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B207" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B208" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3604,63 +3604,63 @@
         <v>123</v>
       </c>
       <c r="B209" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B210" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B211" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B213" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B214" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B215" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B216" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,39 +3668,33 @@
         <v>127</v>
       </c>
       <c r="B217" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B218" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B219" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B220" t="s">
-        <v>345</v>
+        <v>130</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B221" t="s">
-        <v>348</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -5813,18 +5807,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E645" xr:uid="{32E336C4-7F18-4C2F-A175-15E28B340037}"/>
+  <autoFilter ref="A1:E643" xr:uid="{32E336C4-7F18-4C2F-A175-15E28B340037}"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
